--- a/NZXT-Valleyview-Bimonthly.xlsx
+++ b/NZXT-Valleyview-Bimonthly.xlsx
@@ -516,7 +516,9 @@
       <c r="H2" t="n">
         <v>7071</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>7385</v>
+      </c>
       <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -550,7 +552,9 @@
       <c r="H3" t="n">
         <v>83</v>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>83</v>
+      </c>
       <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -584,7 +588,9 @@
       <c r="H4" t="n">
         <v>68</v>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>92</v>
+      </c>
       <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -618,7 +624,9 @@
       <c r="H5" t="n">
         <v>7743</v>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>8384</v>
+      </c>
       <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -652,7 +660,9 @@
       <c r="H6" t="n">
         <v>57</v>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>57</v>
+      </c>
       <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -686,7 +696,9 @@
       <c r="H7" t="n">
         <v>395</v>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>395</v>
+      </c>
       <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -720,7 +732,9 @@
       <c r="H8" t="n">
         <v>395</v>
       </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>395</v>
+      </c>
       <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -754,7 +768,9 @@
       <c r="H9" t="n">
         <v>327</v>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>8384</v>
+      </c>
       <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -788,7 +804,9 @@
       <c r="H10" t="n">
         <v>3043</v>
       </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>2514</v>
+      </c>
       <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -826,7 +844,9 @@
       <c r="H11" t="n">
         <v>2551</v>
       </c>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>2514</v>
+      </c>
       <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -864,7 +884,9 @@
       <c r="H12" t="n">
         <v>6372</v>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>6372</v>
+      </c>
       <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -932,7 +954,9 @@
       <c r="H14" t="n">
         <v>16</v>
       </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>2150</v>
+      </c>
       <c r="J14" t="inlineStr"/>
     </row>
   </sheetData>
